--- a/level 2/codeforces - phase 2-3.xlsx
+++ b/level 2/codeforces - phase 2-3.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11730" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="problem solving level 2.3" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces level 2.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -696,14 +696,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -4820,12 +4813,12 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A14 M4:M115 B4:B115">
-    <cfRule type="cellIs" dxfId="50" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A1048576">
-    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
